--- a/biology/Médecine/Dystocie/Dystocie.xlsx
+++ b/biology/Médecine/Dystocie/Dystocie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La dystocie désigne la difficulté, essentiellement mécanique, qui peut survenir lors d'un accouchement, tant chez les animaux que chez l’être humain. Elle se distingue de l’eutocie, un accouchement qui se déroule normalement.
 La dystocie peut être d'origine métabolique (inertie utérine, hypocalcémie, hypoglycémie…) ou maternelle, c'est-à-dire due à une anomalie chez la parturiente. Elle peut également être liée au fœtus : souvent à sa présentation fœtale, ou à une disproportion comme la macrosomie fœtale.
@@ -514,10 +526,12 @@
           <t>Dystocies d'origine maternelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principales dystocies d'origine maternelle sont les suivantes :
-la dystocie dynamique due à une anomalie de la contraction de l'utérus ; elle représente plus de 50 % des causes d’accouchement dystocique[1]. Lorsque les contractions sont trop peu marquées, on fait un traitement par perfusion d'ocytocine (médicament qui stimule les contractions de l'utérus), qui rétablit la régularité et l'intensité des contractions. Lorsque les contractions sont trop importantes, le risque est l’hypertonie utérine qui ne se relâche pas et entraîne une souffrance pour le bébé. La décision de pratiquer une césarienne peut être prise.
+la dystocie dynamique due à une anomalie de la contraction de l'utérus ; elle représente plus de 50 % des causes d’accouchement dystocique. Lorsque les contractions sont trop peu marquées, on fait un traitement par perfusion d'ocytocine (médicament qui stimule les contractions de l'utérus), qui rétablit la régularité et l'intensité des contractions. Lorsque les contractions sont trop importantes, le risque est l’hypertonie utérine qui ne se relâche pas et entraîne une souffrance pour le bébé. La décision de pratiquer une césarienne peut être prise.
 la dystocie cervicale qui se situe au niveau du col de l'utérus et provient le plus souvent d'une rigidité secondaire à une anomalie de la contraction de l'utérus lui-même, ou d'une agglutination ou rétrécissement du col qui refuse de s'ouvrir . Une césarienne est alors pratiquée.
 la dystocie par obstacle qui est due à la présence d'une tumeur s'opposant à la descente du fœtus, empêchant ainsi sa progression ;
 le placenta praevia qui est l'insertion basse du placenta, constituant une forme de dystocie gênant l'expulsion du fœtus et nécessitant une césarienne ;
@@ -550,7 +564,9 @@
           <t>Dystocies du fœtus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales dystocies du fœtus sont :
 par présentation anormale du fœtus, comme la présentation du siège ou présentation podalique, la présentation de la face, les présentations du front et du bregma, la présentation transverse, la présentation face vers l'avant et la dystocie des épaules ;
@@ -584,7 +600,9 @@
           <t>Présentation fœtale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La présentation fœtale habituelle est le vertex (tête en bas, en flexion), avec l'occiput antérieur.
@@ -620,11 +638,13 @@
           <t>Complications post partum</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Si la dystocie s’aggrave, chez les équins il peut y avoir une non délivrance, une métrite puerpérale, des lacérations recto-vaginales, une vaginite nécrosante, des hémorragies, de l’incontinence urinaire, une inversion utérine, un prolapsus utérin, des lacérations utérines, ou même une fibrose utérine.
 Chez le fœtus il peut y avoir des traumatismes de naissance, une mort périnatale ou post-natale, ou une sortie difficile du bébé.
-Le décès de la parturiente[2] est aussi une issue possible.
+Le décès de la parturiente est aussi une issue possible.
 </t>
         </is>
       </c>
@@ -653,7 +673,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La correction est difficile du aux contractions et leur force, et à la fragilité des tissus du tractus génital, ainsi que la longueur des extrémités du fœtus, et le manque d’espace pour réaliser les manœuvres obstétricales.
 C’est pourquoi il y a un besoin de mise en contexte au médecin ou au vétérinaire: age, traitements et anciennes parturitions, anomalies.
